--- a/core/123.xlsx
+++ b/core/123.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="10620" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="10620" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1927,11 +1928,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="361186224"/>
-        <c:axId val="361181912"/>
+        <c:axId val="194057040"/>
+        <c:axId val="194064152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="361186224"/>
+        <c:axId val="194057040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,7 +1975,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361181912"/>
+        <c:crossAx val="194064152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1982,7 +1983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361181912"/>
+        <c:axId val="194064152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,7 +2034,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361186224"/>
+        <c:crossAx val="194057040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2972,7 +2973,7 @@
   <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
